--- a/package_depoy_master.xlsx
+++ b/package_depoy_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Documents\UiPath\nhbank-poc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\NHBankPoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D322E9-2FF3-473B-A070-15A8D9E9B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546AAAEE-E7CC-45DE-8E23-5AA9E0C0CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1404" windowWidth="21192" windowHeight="9576" xr2:uid="{4180EE5E-5443-49E2-B2A3-97FB44312198}"/>
+    <workbookView xWindow="5805" yWindow="2205" windowWidth="28800" windowHeight="15503" xr2:uid="{4180EE5E-5443-49E2-B2A3-97FB44312198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>부서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,33 +62,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RPA챌린지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A부서</t>
-  </si>
-  <si>
-    <t>A1팀</t>
-  </si>
-  <si>
-    <t>A2팀</t>
-  </si>
-  <si>
-    <t>A3팀</t>
-  </si>
-  <si>
-    <t>A4팀</t>
-  </si>
-  <si>
-    <t>A5팀</t>
+    <t>E부서</t>
+  </si>
+  <si>
+    <t>E1팀</t>
+  </si>
+  <si>
+    <t>E2팀</t>
+  </si>
+  <si>
+    <t>E3팀</t>
+  </si>
+  <si>
+    <t>E4팀</t>
+  </si>
+  <si>
+    <t>E5팀</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9235BB-22B9-46ED-BAA7-BACF245350C3}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,141 +463,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -610,9 +606,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -621,70 +617,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/package_depoy_master.xlsx
+++ b/package_depoy_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\NHBankPoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546AAAEE-E7CC-45DE-8E23-5AA9E0C0CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07082FC7-5FC7-4322-B6C8-E6CCA9D3AF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2205" windowWidth="28800" windowHeight="15503" xr2:uid="{4180EE5E-5443-49E2-B2A3-97FB44312198}"/>
+    <workbookView xWindow="8160" yWindow="2970" windowWidth="15690" windowHeight="15503" xr2:uid="{4180EE5E-5443-49E2-B2A3-97FB44312198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>부서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,22 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E부서</t>
-  </si>
-  <si>
-    <t>E1팀</t>
-  </si>
-  <si>
-    <t>E2팀</t>
-  </si>
-  <si>
-    <t>E3팀</t>
-  </si>
-  <si>
-    <t>E4팀</t>
-  </si>
-  <si>
-    <t>E5팀</t>
+    <t>A부서</t>
+  </si>
+  <si>
+    <t>A1팀</t>
+  </si>
+  <si>
+    <t>A2팀</t>
+  </si>
+  <si>
+    <t>A3팀</t>
+  </si>
+  <si>
+    <t>A4팀</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9235BB-22B9-46ED-BAA7-BACF245350C3}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -463,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -485,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -496,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -507,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -518,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -592,39 +589,6 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
